--- a/画面遷移フロー.xlsx
+++ b/画面遷移フロー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\侍エンジニア\glitch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC36993-D7A0-4CA2-850C-B9AFFF0D3630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBDF24-46BB-4579-B637-00B86A5570CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEFB9BE6-FE70-4F5F-88BB-3663603E479C}"/>
   </bookViews>
@@ -31,6 +31,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>らじおボタンを選んだ</t>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト変更</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>canvas要素を用意</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12662,16 +12691,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C2846-24A0-4615-A22E-DE4C5B74AB00}">
-  <dimension ref="A19:A23"/>
+  <dimension ref="L19:L71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH131" sqref="AH131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="19" ht="51" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="23" ht="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L71" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
